--- a/Work Php SQL WP.xlsx
+++ b/Work Php SQL WP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://en.wikibooks.org/wiki/SQL_Exercises</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Dezvoltare de plugin-uri, lucrul cu datele (marire preturi,micsorare preturi, promotii)</t>
+  </si>
+  <si>
+    <t>Baze de date, SQL, integrare WP / SQL</t>
+  </si>
+  <si>
+    <t>Folosire baza de date wordpress pentru cautare produse / post-uri // inserare in bd</t>
+  </si>
+  <si>
+    <t>https://codex.wordpress.org/Class_Reference/wpdb</t>
+  </si>
+  <si>
+    <t>https://codex.wordpress.org/Class_Reference/WP_Query</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,11 +443,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -494,6 +520,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work Php SQL WP.xlsx
+++ b/Work Php SQL WP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://en.wikibooks.org/wiki/SQL_Exercises</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>https://codex.wordpress.org/Class_Reference/WP_Query</t>
+  </si>
+  <si>
+    <t>http://daylerees.com/php-namespaces-explained/</t>
+  </si>
+  <si>
+    <t>http://www.sitepoint.com/handling-post-requests-the-wordpress-way/</t>
+  </si>
+  <si>
+    <t>https://github.com/spyre/emiral/blob/master/ian.12/wordpress-login-count.php</t>
+  </si>
+  <si>
+    <t>Namespaces, plugins - modificam plugin-uri, folosim clase in plugin-uri</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,22 +476,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42381</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42374</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42381</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
@@ -522,6 +554,9 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work Php SQL WP.xlsx
+++ b/Work Php SQL WP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://en.wikibooks.org/wiki/SQL_Exercises</t>
   </si>
@@ -61,6 +61,19 @@
   </si>
   <si>
     <t>Namespaces, plugins - modificam plugin-uri, folosim clase in plugin-uri</t>
+  </si>
+  <si>
+    <t>// https://github.com/WP-API/Basic-Auth
+// https://github.com/WP-API/WP-API/issues/509 - adaugare HTTPHEADER autentificare (pentru basic authentication)</t>
+  </si>
+  <si>
+    <t>Autentificare, integrare WP</t>
+  </si>
+  <si>
+    <t>Aplicatie care citeste informatii dintr-un formular si le trimite la "noi" (o aplicatie PHP / Wordpress) XML / JSON / direct, luam informatiile si le afisam (WP - posts, Php - lista)</t>
+  </si>
+  <si>
+    <t>integrare Php / Wordpress cu ORICE!</t>
   </si>
 </sst>
 </file>
@@ -105,11 +118,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +441,11 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="85.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -441,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42348</v>
       </c>
@@ -455,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42360</v>
       </c>
@@ -469,28 +487,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42381</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42374</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42381</v>
       </c>
@@ -501,35 +519,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42409</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42416</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
@@ -559,6 +593,7 @@
     <hyperlink ref="F10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
